--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSynch\Programación\Python\AnkyAutomate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7750C-AAFB-43A2-86A7-E51C37AA7486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC3474F-0BBD-4C91-8F4E-20953E87F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="3810" windowWidth="19515" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,82 +75,82 @@
     <t>Acento,énfasis, acentuar</t>
   </si>
   <si>
+    <t>aceptable</t>
+  </si>
+  <si>
+    <t>aceptación</t>
+  </si>
+  <si>
+    <t>Acceso, entrada</t>
+  </si>
+  <si>
+    <t>accesible</t>
+  </si>
+  <si>
+    <t>ability (əbɪlɪtɪ)</t>
+  </si>
+  <si>
+    <t>able (eɪbl)</t>
+  </si>
+  <si>
+    <t>abortion (əˈbɔːʃən)</t>
+  </si>
+  <si>
+    <t>about (əˈbaʊt)</t>
+  </si>
+  <si>
+    <t>above (əˈbʌv(eabav))</t>
+  </si>
+  <si>
+    <t>abroad (əˈbrɔːd)</t>
+  </si>
+  <si>
+    <t>absence (ˈæbsəns)</t>
+  </si>
+  <si>
+    <t>absolute (ˈæbsəluːt)</t>
+  </si>
+  <si>
+    <t>absorb (əbˈzɔːb)</t>
+  </si>
+  <si>
+    <t>abstract (ˈæbstrækt)</t>
+  </si>
+  <si>
+    <t>abuse (əˈbjuːz)</t>
+  </si>
+  <si>
+    <t>academic (ækəˈdemɪk)</t>
+  </si>
+  <si>
+    <t>accelerate (ækˈseləreɪt)</t>
+  </si>
+  <si>
+    <t>accent (ˈæksənt)</t>
+  </si>
+  <si>
+    <t>accept (əksept)</t>
+  </si>
+  <si>
+    <t>acceptable (əkˈseptəbl)</t>
+  </si>
+  <si>
+    <t>acceptance (əkˈseptəns)</t>
+  </si>
+  <si>
+    <t>access (ˈækses)</t>
+  </si>
+  <si>
+    <t>accessible (ækˈsesebl)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>absolutely (ˈæbsəluːtlɪ)</t>
+  </si>
+  <si>
     <t>aceptar</t>
-  </si>
-  <si>
-    <t>aceptable</t>
-  </si>
-  <si>
-    <t>aceptación</t>
-  </si>
-  <si>
-    <t>Acceso, entrada</t>
-  </si>
-  <si>
-    <t>accesible</t>
-  </si>
-  <si>
-    <t>a (ei)</t>
-  </si>
-  <si>
-    <t>ability (əbɪlɪtɪ)</t>
-  </si>
-  <si>
-    <t>able (eɪbl)</t>
-  </si>
-  <si>
-    <t>abortion (əˈbɔːʃən)</t>
-  </si>
-  <si>
-    <t>about (əˈbaʊt)</t>
-  </si>
-  <si>
-    <t>above (əˈbʌv(eabav))</t>
-  </si>
-  <si>
-    <t>abroad (əˈbrɔːd)</t>
-  </si>
-  <si>
-    <t>absence (ˈæbsəns)</t>
-  </si>
-  <si>
-    <t>absolute (ˈæbsəluːt)</t>
-  </si>
-  <si>
-    <t>absolutely (ˈæbsəluːtlɪ)</t>
-  </si>
-  <si>
-    <t>absorb (əbˈzɔːb)</t>
-  </si>
-  <si>
-    <t>abstract (ˈæbstrækt)</t>
-  </si>
-  <si>
-    <t>abuse (əˈbjuːz)</t>
-  </si>
-  <si>
-    <t>academic (ækəˈdemɪk)</t>
-  </si>
-  <si>
-    <t>accelerate (ækˈseləreɪt)</t>
-  </si>
-  <si>
-    <t>accent (ˈæksənt)</t>
-  </si>
-  <si>
-    <t>accept (əksept)</t>
-  </si>
-  <si>
-    <t>acceptable (əkˈseptəbl)</t>
-  </si>
-  <si>
-    <t>acceptance (əkˈseptəns)</t>
-  </si>
-  <si>
-    <t>access (ˈækses)</t>
-  </si>
-  <si>
-    <t>accessible (ækˈsesebl)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -633,42 +633,42 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
